--- a/dataExcel/【AK-47（StatTrak™） _ 卡特尔 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47（StatTrak™） _ 卡特尔 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,86 +431,86 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-17 13:19:27</v>
+        <v>2023-09-19 01:31:31</v>
       </c>
       <c r="B8">
-        <v>248</v>
+        <v>244.99</v>
       </c>
       <c r="C8">
-        <v>304.52</v>
+        <v>284.05</v>
       </c>
       <c r="D8">
         <v>123</v>
       </c>
       <c r="E8">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F8">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="G8">
         <v>36</v>
       </c>
       <c r="H8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-17 18:30:26</v>
+        <v>2023-09-19 06:39:42</v>
       </c>
       <c r="B9">
-        <v>248</v>
+        <v>244.99</v>
       </c>
       <c r="C9">
-        <v>304.52</v>
+        <v>284.05</v>
       </c>
       <c r="D9">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E9">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F9">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="G9">
         <v>36</v>
       </c>
       <c r="H9">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 23:40:42</v>
+        <v>2023-09-19 11:49:41</v>
       </c>
       <c r="B10">
-        <v>248</v>
+        <v>244.49</v>
       </c>
       <c r="C10">
-        <v>304.52</v>
+        <v>284.05</v>
       </c>
       <c r="D10">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>0.3</v>
       </c>
       <c r="F10">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G10">
         <v>37</v>
       </c>
       <c r="H10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -518,132 +518,132 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-18 04:49:44</v>
+        <v>2023-09-19 16:59:39</v>
       </c>
       <c r="B11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C11">
         <v>284.05</v>
       </c>
       <c r="D11">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E11">
         <v>0.3</v>
       </c>
       <c r="F11">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G11">
         <v>37</v>
       </c>
       <c r="H11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-18 10:00:24</v>
+        <v>2023-09-19 22:09:38</v>
       </c>
       <c r="B12">
-        <v>247.5</v>
+        <v>244</v>
       </c>
       <c r="C12">
         <v>284.05</v>
       </c>
       <c r="D12">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>0.3</v>
       </c>
       <c r="F12">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-18 15:09:36</v>
+        <v>2023-09-20 03:20:33</v>
       </c>
       <c r="B13">
-        <v>247</v>
+        <v>244.5</v>
       </c>
       <c r="C13">
-        <v>284.05</v>
+        <v>292.5</v>
       </c>
       <c r="D13">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>0.3</v>
       </c>
       <c r="F13">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="G13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 20:19:35</v>
+        <v>2023-09-20 08:34:06</v>
       </c>
       <c r="B14">
-        <v>245</v>
+        <v>244.5</v>
       </c>
       <c r="C14">
-        <v>284.05</v>
+        <v>292.5</v>
       </c>
       <c r="D14">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E14">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
         <v>0.28</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-19 01:31:31</v>
+        <v>2023-09-20 13:39:53</v>
       </c>
       <c r="B15">
-        <v>244.99</v>
+        <v>243</v>
       </c>
       <c r="C15">
-        <v>284.05</v>
+        <v>292.5</v>
       </c>
       <c r="D15">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15">
         <v>0.3</v>
@@ -652,39 +652,39 @@
         <v>0.28</v>
       </c>
       <c r="G15">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-19 06:39:42</v>
+        <v>2023-09-20 18:49:52</v>
       </c>
       <c r="B16">
-        <v>244.99</v>
+        <v>240</v>
       </c>
       <c r="C16">
-        <v>284.05</v>
+        <v>292.5</v>
       </c>
       <c r="D16">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F16">
         <v>0.28</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -692,57 +692,57 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-19 11:49:41</v>
+        <v>2023-09-20 23:59:51</v>
       </c>
       <c r="B17">
-        <v>244.49</v>
+        <v>242</v>
       </c>
       <c r="C17">
-        <v>284.05</v>
+        <v>292.5</v>
       </c>
       <c r="D17">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="F17">
         <v>0.28</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-19 16:59:39</v>
+        <v>2023-09-21 05:10:23</v>
       </c>
       <c r="B18">
-        <v>244</v>
+        <v>247.5</v>
       </c>
       <c r="C18">
-        <v>284.05</v>
+        <v>305.69</v>
       </c>
       <c r="D18">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F18">
         <v>0.28</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -750,19 +750,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 22:09:38</v>
+        <v>2023-09-21 10:22:52</v>
       </c>
       <c r="B19">
-        <v>244</v>
+        <v>247.5</v>
       </c>
       <c r="C19">
-        <v>284.05</v>
+        <v>305.69</v>
       </c>
       <c r="D19">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E19">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F19">
         <v>0.28</v>
@@ -771,65 +771,65 @@
         <v>38</v>
       </c>
       <c r="H19">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-20 03:20:33</v>
+        <v>2023-09-21 14:03:35</v>
       </c>
       <c r="B20">
-        <v>244.5</v>
+        <v>247.5</v>
       </c>
       <c r="C20">
-        <v>292.5</v>
+        <v>305.69</v>
       </c>
       <c r="D20">
         <v>124</v>
       </c>
       <c r="E20">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F20">
         <v>0.28</v>
       </c>
       <c r="G20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-20 08:34:06</v>
+        <v>2023-09-21 17:38:43</v>
       </c>
       <c r="B21">
-        <v>244.5</v>
+        <v>247.4</v>
       </c>
       <c r="C21">
-        <v>292.5</v>
+        <v>305.69</v>
       </c>
       <c r="D21">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="F21">
         <v>0.28</v>
       </c>
       <c r="G21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -837,152 +837,152 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-20 13:39:53</v>
+        <v>2023-09-21 21:15:49</v>
       </c>
       <c r="B22">
-        <v>243</v>
+        <v>247.4</v>
       </c>
       <c r="C22">
-        <v>292.5</v>
+        <v>305.69</v>
       </c>
       <c r="D22">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E22">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="F22">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G22">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-20 18:49:52</v>
+        <v>2023-09-22 00:54:09</v>
       </c>
       <c r="B23">
-        <v>240</v>
+        <v>247.4</v>
       </c>
       <c r="C23">
-        <v>292.5</v>
+        <v>305.69</v>
       </c>
       <c r="D23">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E23">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F23">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G23">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-20 23:59:51</v>
+        <v>2023-09-22 04:30:26</v>
       </c>
       <c r="B24">
-        <v>242</v>
+        <v>247.4</v>
       </c>
       <c r="C24">
-        <v>292.5</v>
+        <v>305.69</v>
       </c>
       <c r="D24">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E24">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F24">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G24">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-21 05:10:23</v>
+        <v>2023-09-22 08:08:55</v>
       </c>
       <c r="B25">
-        <v>247.5</v>
+        <v>247.4</v>
       </c>
       <c r="C25">
         <v>305.69</v>
       </c>
       <c r="D25">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E25">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F25">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-21 10:22:52</v>
+        <v>2023-09-22 11:47:47</v>
       </c>
       <c r="B26">
-        <v>247.5</v>
+        <v>247.4</v>
       </c>
       <c r="C26">
         <v>305.69</v>
       </c>
       <c r="D26">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F26">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G26">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-21 14:03:35</v>
+        <v>2023-09-22 15:28:43</v>
       </c>
       <c r="B27">
         <v>247.5</v>
@@ -991,65 +991,65 @@
         <v>305.69</v>
       </c>
       <c r="D27">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E27">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F27">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G27">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-21 17:38:43</v>
+        <v>2023-09-22 19:06:22</v>
       </c>
       <c r="B28">
-        <v>247.4</v>
+        <v>250</v>
       </c>
       <c r="C28">
         <v>305.69</v>
       </c>
       <c r="D28">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="F28">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G28">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-21 21:15:49</v>
+        <v>2023-09-22 22:46:17</v>
       </c>
       <c r="B29">
-        <v>247.4</v>
+        <v>250</v>
       </c>
       <c r="C29">
         <v>305.69</v>
       </c>
       <c r="D29">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E29">
         <v>0.38</v>
@@ -1058,27 +1058,27 @@
         <v>0.3</v>
       </c>
       <c r="G29">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-22 00:54:09</v>
+        <v>2023-09-23 02:25:36</v>
       </c>
       <c r="B30">
-        <v>247.4</v>
+        <v>250</v>
       </c>
       <c r="C30">
-        <v>305.69</v>
+        <v>278.07</v>
       </c>
       <c r="D30">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E30">
         <v>0.38</v>
@@ -1087,27 +1087,27 @@
         <v>0.3</v>
       </c>
       <c r="G30">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-22 04:30:26</v>
+        <v>2023-09-23 06:02:27</v>
       </c>
       <c r="B31">
-        <v>247.4</v>
+        <v>250</v>
       </c>
       <c r="C31">
-        <v>305.69</v>
+        <v>278.07</v>
       </c>
       <c r="D31">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E31">
         <v>0.38</v>
@@ -1116,27 +1116,27 @@
         <v>0.3</v>
       </c>
       <c r="G31">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I31">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-22 08:08:55</v>
+        <v>2023-09-23 09:40:00</v>
       </c>
       <c r="B32">
-        <v>247.4</v>
+        <v>250</v>
       </c>
       <c r="C32">
-        <v>305.69</v>
+        <v>278.07</v>
       </c>
       <c r="D32">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>0.38</v>
@@ -1145,27 +1145,27 @@
         <v>0.3</v>
       </c>
       <c r="G32">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-22 11:47:47</v>
+        <v>2023-09-23 13:19:04</v>
       </c>
       <c r="B33">
-        <v>247.4</v>
+        <v>249.5</v>
       </c>
       <c r="C33">
-        <v>305.69</v>
+        <v>278.07</v>
       </c>
       <c r="D33">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E33">
         <v>0.38</v>
@@ -1174,27 +1174,27 @@
         <v>0.3</v>
       </c>
       <c r="G33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 15:28:43</v>
+        <v>2023-09-23 16:55:57</v>
       </c>
       <c r="B34">
-        <v>247.5</v>
+        <v>244.49</v>
       </c>
       <c r="C34">
-        <v>305.69</v>
+        <v>278.07</v>
       </c>
       <c r="D34">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E34">
         <v>0.38</v>
@@ -1209,21 +1209,21 @@
         <v>225</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 19:06:22</v>
+        <v>2023-09-23 20:37:52</v>
       </c>
       <c r="B35">
-        <v>250</v>
+        <v>242.9</v>
       </c>
       <c r="C35">
-        <v>305.69</v>
+        <v>278.07</v>
       </c>
       <c r="D35">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E35">
         <v>0.38</v>
@@ -1235,24 +1235,24 @@
         <v>35</v>
       </c>
       <c r="H35">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 22:46:17</v>
+        <v>2023-09-24 00:18:37</v>
       </c>
       <c r="B36">
-        <v>250</v>
+        <v>242.9</v>
       </c>
       <c r="C36">
-        <v>305.69</v>
+        <v>278.07</v>
       </c>
       <c r="D36">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>0.38</v>
@@ -1261,27 +1261,27 @@
         <v>0.3</v>
       </c>
       <c r="G36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-23 02:25:36</v>
+        <v>2023-09-24 03:59:34</v>
       </c>
       <c r="B37">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C37">
-        <v>278.07</v>
+        <v>305.76</v>
       </c>
       <c r="D37">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>0.38</v>
@@ -1290,27 +1290,27 @@
         <v>0.3</v>
       </c>
       <c r="G37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I37">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-23 06:02:27</v>
+        <v>2023-09-24 04:04:57</v>
       </c>
       <c r="B38">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C38">
-        <v>278.07</v>
+        <v>305.76</v>
       </c>
       <c r="D38">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E38">
         <v>0.38</v>
@@ -1319,27 +1319,27 @@
         <v>0.3</v>
       </c>
       <c r="G38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 09:40:00</v>
+        <v>2023-09-24 07:41:22</v>
       </c>
       <c r="B39">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C39">
-        <v>278.07</v>
+        <v>305.76</v>
       </c>
       <c r="D39">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E39">
         <v>0.38</v>
@@ -1351,24 +1351,24 @@
         <v>35</v>
       </c>
       <c r="H39">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I39">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 13:19:04</v>
+        <v>2023-09-24 11:18:35</v>
       </c>
       <c r="B40">
-        <v>249.5</v>
+        <v>242.9</v>
       </c>
       <c r="C40">
-        <v>278.07</v>
+        <v>305.76</v>
       </c>
       <c r="D40">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>0.38</v>
@@ -1380,24 +1380,24 @@
         <v>35</v>
       </c>
       <c r="H40">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I40">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 16:55:57</v>
+        <v>2023-09-24 14:56:36</v>
       </c>
       <c r="B41">
-        <v>244.49</v>
+        <v>242.9</v>
       </c>
       <c r="C41">
-        <v>278.07</v>
+        <v>305.76</v>
       </c>
       <c r="D41">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E41">
         <v>0.38</v>
@@ -1406,27 +1406,27 @@
         <v>0.3</v>
       </c>
       <c r="G41">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I41">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 20:37:52</v>
+        <v>2023-09-24 18:32:58</v>
       </c>
       <c r="B42">
         <v>242.9</v>
       </c>
       <c r="C42">
-        <v>278.07</v>
+        <v>305.76</v>
       </c>
       <c r="D42">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42">
         <v>0.38</v>
@@ -1435,27 +1435,27 @@
         <v>0.3</v>
       </c>
       <c r="G42">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>224</v>
       </c>
       <c r="I42">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-24 00:18:37</v>
+        <v>2023-09-24 22:09:40</v>
       </c>
       <c r="B43">
-        <v>242.9</v>
+        <v>242</v>
       </c>
       <c r="C43">
-        <v>278.07</v>
+        <v>305.76</v>
       </c>
       <c r="D43">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E43">
         <v>0.38</v>
@@ -1464,18 +1464,18 @@
         <v>0.3</v>
       </c>
       <c r="G43">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I43">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 03:59:34</v>
+        <v>2023-09-25 01:46:48</v>
       </c>
       <c r="B44">
         <v>242</v>
@@ -1484,7 +1484,7 @@
         <v>305.76</v>
       </c>
       <c r="D44">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E44">
         <v>0.38</v>
@@ -1493,27 +1493,27 @@
         <v>0.3</v>
       </c>
       <c r="G44">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I44">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 04:04:57</v>
+        <v>2023-09-25 05:26:59</v>
       </c>
       <c r="B45">
         <v>242</v>
       </c>
       <c r="C45">
-        <v>305.76</v>
+        <v>276.77</v>
       </c>
       <c r="D45">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E45">
         <v>0.38</v>
@@ -1522,27 +1522,27 @@
         <v>0.3</v>
       </c>
       <c r="G45">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I45">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 07:41:22</v>
+        <v>2023-09-25 09:08:26</v>
       </c>
       <c r="B46">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C46">
-        <v>305.76</v>
+        <v>276.77</v>
       </c>
       <c r="D46">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E46">
         <v>0.38</v>
@@ -1551,27 +1551,27 @@
         <v>0.3</v>
       </c>
       <c r="G46">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 11:18:35</v>
+        <v>2023-09-25 12:47:59</v>
       </c>
       <c r="B47">
-        <v>242.9</v>
+        <v>240</v>
       </c>
       <c r="C47">
-        <v>305.76</v>
+        <v>276.77</v>
       </c>
       <c r="D47">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E47">
         <v>0.38</v>
@@ -1583,24 +1583,24 @@
         <v>35</v>
       </c>
       <c r="H47">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I47">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-24 14:56:36</v>
+        <v>2023-09-25 16:27:17</v>
       </c>
       <c r="B48">
-        <v>242.9</v>
+        <v>240</v>
       </c>
       <c r="C48">
-        <v>305.76</v>
+        <v>276.77</v>
       </c>
       <c r="D48">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E48">
         <v>0.38</v>
@@ -1609,27 +1609,27 @@
         <v>0.3</v>
       </c>
       <c r="G48">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H48">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-24 18:32:58</v>
+        <v>2023-09-25 20:03:32</v>
       </c>
       <c r="B49">
-        <v>242.9</v>
+        <v>240</v>
       </c>
       <c r="C49">
-        <v>305.76</v>
+        <v>276.77</v>
       </c>
       <c r="D49">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E49">
         <v>0.38</v>
@@ -1638,27 +1638,27 @@
         <v>0.3</v>
       </c>
       <c r="G49">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H49">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-24 22:09:40</v>
+        <v>2023-09-25 23:41:29</v>
       </c>
       <c r="B50">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C50">
-        <v>305.76</v>
+        <v>276.77</v>
       </c>
       <c r="D50">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E50">
         <v>0.38</v>
@@ -1667,10 +1667,10 @@
         <v>0.3</v>
       </c>
       <c r="G50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H50">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I50">
         <v>5</v>
@@ -1678,16 +1678,16 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 01:46:48</v>
+        <v>2023-09-25 23:47:26</v>
       </c>
       <c r="B51">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C51">
-        <v>305.76</v>
+        <v>276.77</v>
       </c>
       <c r="D51">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E51">
         <v>0.38</v>
@@ -1696,27 +1696,27 @@
         <v>0.3</v>
       </c>
       <c r="G51">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-25 05:26:59</v>
+        <v>2023-09-26 03:26:57</v>
       </c>
       <c r="B52">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C52">
-        <v>276.77</v>
+        <v>304.64</v>
       </c>
       <c r="D52">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E52">
         <v>0.38</v>
@@ -1725,27 +1725,27 @@
         <v>0.3</v>
       </c>
       <c r="G52">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>213</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-25 09:08:26</v>
+        <v>2023-09-26 07:07:37</v>
       </c>
       <c r="B53">
         <v>240</v>
       </c>
       <c r="C53">
-        <v>276.77</v>
+        <v>304.64</v>
       </c>
       <c r="D53">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E53">
         <v>0.38</v>
@@ -1754,27 +1754,27 @@
         <v>0.3</v>
       </c>
       <c r="G53">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>213</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-25 12:47:59</v>
+        <v>2023-09-26 10:48:05</v>
       </c>
       <c r="B54">
         <v>240</v>
       </c>
       <c r="C54">
-        <v>276.77</v>
+        <v>304.64</v>
       </c>
       <c r="D54">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>0.38</v>
@@ -1786,24 +1786,24 @@
         <v>35</v>
       </c>
       <c r="H54">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-25 16:27:17</v>
+        <v>2023-09-26 14:26:56</v>
       </c>
       <c r="B55">
         <v>240</v>
       </c>
       <c r="C55">
-        <v>276.77</v>
+        <v>304.64</v>
       </c>
       <c r="D55">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E55">
         <v>0.38</v>
@@ -1812,27 +1812,27 @@
         <v>0.3</v>
       </c>
       <c r="G55">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-25 20:03:32</v>
+        <v>2023-09-26 18:07:57</v>
       </c>
       <c r="B56">
         <v>240</v>
       </c>
       <c r="C56">
-        <v>276.77</v>
+        <v>304.64</v>
       </c>
       <c r="D56">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>0.38</v>
@@ -1841,27 +1841,27 @@
         <v>0.3</v>
       </c>
       <c r="G56">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-25 23:41:29</v>
+        <v>2023-09-26 21:44:39</v>
       </c>
       <c r="B57">
         <v>240</v>
       </c>
       <c r="C57">
-        <v>276.77</v>
+        <v>304.64</v>
       </c>
       <c r="D57">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E57">
         <v>0.38</v>
@@ -1873,24 +1873,24 @@
         <v>35</v>
       </c>
       <c r="H57">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-25 23:47:26</v>
+        <v>2023-09-27 01:21:14</v>
       </c>
       <c r="B58">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="C58">
-        <v>276.77</v>
+        <v>304.64</v>
       </c>
       <c r="D58">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E58">
         <v>0.38</v>
@@ -1902,24 +1902,24 @@
         <v>35</v>
       </c>
       <c r="H58">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-26 03:26:57</v>
+        <v>2023-09-27 05:00:45</v>
       </c>
       <c r="B59">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="C59">
-        <v>304.64</v>
+        <v>303.75</v>
       </c>
       <c r="D59">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E59">
         <v>0.38</v>
@@ -1931,24 +1931,24 @@
         <v>35</v>
       </c>
       <c r="H59">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-26 07:07:37</v>
+        <v>2023-09-27 08:36:18</v>
       </c>
       <c r="B60">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="C60">
-        <v>304.64</v>
+        <v>303.75</v>
       </c>
       <c r="D60">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E60">
         <v>0.38</v>
@@ -1957,27 +1957,27 @@
         <v>0.3</v>
       </c>
       <c r="G60">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-26 10:48:05</v>
+        <v>2023-09-27 13:41:56</v>
       </c>
       <c r="B61">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="C61">
-        <v>304.64</v>
+        <v>303.75</v>
       </c>
       <c r="D61">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E61">
         <v>0.38</v>
@@ -1989,24 +1989,24 @@
         <v>35</v>
       </c>
       <c r="H61">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-26 14:26:56</v>
+        <v>2023-09-27 18:51:55</v>
       </c>
       <c r="B62">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="C62">
-        <v>304.64</v>
+        <v>303.75</v>
       </c>
       <c r="D62">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E62">
         <v>0.38</v>
@@ -2015,10 +2015,10 @@
         <v>0.3</v>
       </c>
       <c r="G62">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I62">
         <v>5</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-26 18:07:57</v>
+        <v>2023-09-28 00:01:54</v>
       </c>
       <c r="B63">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="C63">
-        <v>304.64</v>
+        <v>303.75</v>
       </c>
       <c r="D63">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E63">
         <v>0.38</v>
@@ -2044,10 +2044,10 @@
         <v>0.3</v>
       </c>
       <c r="G63">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I63">
         <v>5</v>
@@ -2055,13 +2055,13 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-26 21:44:39</v>
+        <v>2023-09-28 05:11:52</v>
       </c>
       <c r="B64">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="C64">
-        <v>304.64</v>
+        <v>292.5</v>
       </c>
       <c r="D64">
         <v>123</v>
@@ -2076,24 +2076,24 @@
         <v>35</v>
       </c>
       <c r="H64">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-27 01:21:14</v>
+        <v>2023-09-28 10:21:50</v>
       </c>
       <c r="B65">
         <v>242.9</v>
       </c>
       <c r="C65">
-        <v>304.64</v>
+        <v>292.5</v>
       </c>
       <c r="D65">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65">
         <v>0.38</v>
@@ -2102,27 +2102,27 @@
         <v>0.3</v>
       </c>
       <c r="G65">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-27 05:00:45</v>
+        <v>2023-09-28 15:22:32</v>
       </c>
       <c r="B66">
         <v>242.9</v>
       </c>
       <c r="C66">
-        <v>303.75</v>
+        <v>292.5</v>
       </c>
       <c r="D66">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66">
         <v>0.38</v>
@@ -2131,24 +2131,24 @@
         <v>0.3</v>
       </c>
       <c r="G66">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-27 08:36:18</v>
+        <v>2023-09-28 20:32:30</v>
       </c>
       <c r="B67">
-        <v>242.9</v>
+        <v>245</v>
       </c>
       <c r="C67">
-        <v>303.75</v>
+        <v>292.5</v>
       </c>
       <c r="D67">
         <v>120</v>
@@ -2160,27 +2160,27 @@
         <v>0.3</v>
       </c>
       <c r="G67">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-27 13:41:56</v>
+        <v>2023-09-29 01:42:29</v>
       </c>
       <c r="B68">
-        <v>242.9</v>
+        <v>245</v>
       </c>
       <c r="C68">
-        <v>303.75</v>
+        <v>292.5</v>
       </c>
       <c r="D68">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E68">
         <v>0.38</v>
@@ -2189,27 +2189,27 @@
         <v>0.3</v>
       </c>
       <c r="G68">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-27 18:51:55</v>
+        <v>2023-09-29 06:52:28</v>
       </c>
       <c r="B69">
-        <v>242.9</v>
+        <v>245</v>
       </c>
       <c r="C69">
-        <v>303.75</v>
+        <v>305.5</v>
       </c>
       <c r="D69">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69">
         <v>0.38</v>
@@ -2218,27 +2218,27 @@
         <v>0.3</v>
       </c>
       <c r="G69">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I69">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-28 00:01:54</v>
+        <v>2023-09-29 11:52:52</v>
       </c>
       <c r="B70">
-        <v>242.9</v>
+        <v>247</v>
       </c>
       <c r="C70">
-        <v>303.75</v>
+        <v>305.5</v>
       </c>
       <c r="D70">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E70">
         <v>0.38</v>
@@ -2247,27 +2247,27 @@
         <v>0.3</v>
       </c>
       <c r="G70">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-28 05:11:52</v>
+        <v>2023-09-29 17:02:51</v>
       </c>
       <c r="B71">
-        <v>242.9</v>
+        <v>246.99</v>
       </c>
       <c r="C71">
-        <v>292.5</v>
+        <v>305.5</v>
       </c>
       <c r="D71">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E71">
         <v>0.38</v>
@@ -2276,27 +2276,27 @@
         <v>0.3</v>
       </c>
       <c r="G71">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H71">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-28 10:21:50</v>
+        <v>2023-09-29 22:12:50</v>
       </c>
       <c r="B72">
-        <v>242.9</v>
+        <v>246.49</v>
       </c>
       <c r="C72">
-        <v>292.5</v>
+        <v>305.5</v>
       </c>
       <c r="D72">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E72">
         <v>0.38</v>
@@ -2305,27 +2305,27 @@
         <v>0.3</v>
       </c>
       <c r="G72">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-28 15:22:32</v>
+        <v>2023-09-30 03:16:33</v>
       </c>
       <c r="B73">
-        <v>242.9</v>
+        <v>240</v>
       </c>
       <c r="C73">
-        <v>292.5</v>
+        <v>340.28</v>
       </c>
       <c r="D73">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E73">
         <v>0.38</v>
@@ -2334,27 +2334,27 @@
         <v>0.3</v>
       </c>
       <c r="G73">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-28 20:32:30</v>
+        <v>2023-09-30 08:18:13</v>
       </c>
       <c r="B74">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C74">
-        <v>292.5</v>
+        <v>340.28</v>
       </c>
       <c r="D74">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74">
         <v>0.38</v>
@@ -2363,27 +2363,27 @@
         <v>0.3</v>
       </c>
       <c r="G74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-29 01:42:29</v>
+        <v>2023-09-30 13:29:03</v>
       </c>
       <c r="B75">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C75">
-        <v>292.5</v>
+        <v>340.28</v>
       </c>
       <c r="D75">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>0.38</v>
@@ -2392,27 +2392,27 @@
         <v>0.3</v>
       </c>
       <c r="G75">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-29 06:52:28</v>
+        <v>2023-09-30 18:37:42</v>
       </c>
       <c r="B76">
-        <v>245</v>
+        <v>234.5</v>
       </c>
       <c r="C76">
-        <v>305.5</v>
+        <v>340.28</v>
       </c>
       <c r="D76">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76">
         <v>0.38</v>
@@ -2421,27 +2421,27 @@
         <v>0.3</v>
       </c>
       <c r="G76">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-29 11:52:52</v>
+        <v>2023-09-30 23:47:41</v>
       </c>
       <c r="B77">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C77">
-        <v>305.5</v>
+        <v>340.28</v>
       </c>
       <c r="D77">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E77">
         <v>0.38</v>
@@ -2450,10 +2450,10 @@
         <v>0.3</v>
       </c>
       <c r="G77">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I77">
         <v>4</v>
@@ -2461,16 +2461,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-29 17:02:51</v>
+        <v>2023-10-01 04:58:55</v>
       </c>
       <c r="B78">
-        <v>246.99</v>
+        <v>230</v>
       </c>
       <c r="C78">
-        <v>305.5</v>
+        <v>322.14</v>
       </c>
       <c r="D78">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E78">
         <v>0.38</v>
@@ -2479,27 +2479,27 @@
         <v>0.3</v>
       </c>
       <c r="G78">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-29 22:12:50</v>
+        <v>2023-10-01 10:07:47</v>
       </c>
       <c r="B79">
-        <v>246.49</v>
+        <v>230</v>
       </c>
       <c r="C79">
-        <v>305.5</v>
+        <v>322.14</v>
       </c>
       <c r="D79">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E79">
         <v>0.38</v>
@@ -2508,10 +2508,10 @@
         <v>0.3</v>
       </c>
       <c r="G79">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -2519,28 +2519,28 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-30 03:16:33</v>
+        <v>2023-10-01 15:18:22</v>
       </c>
       <c r="B80">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C80">
-        <v>340.28</v>
+        <v>322.14</v>
       </c>
       <c r="D80">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E80">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F80">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G80">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -2548,86 +2548,86 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-30 08:18:13</v>
+        <v>2023-10-01 20:27:54</v>
       </c>
       <c r="B81">
-        <v>240</v>
+        <v>237.5</v>
       </c>
       <c r="C81">
-        <v>340.28</v>
+        <v>322.14</v>
       </c>
       <c r="D81">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E81">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F81">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G81">
         <v>34</v>
       </c>
       <c r="H81">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-30 13:29:03</v>
+        <v>2023-10-02 01:37:54</v>
       </c>
       <c r="B82">
-        <v>235</v>
+        <v>237.5</v>
       </c>
       <c r="C82">
-        <v>340.28</v>
+        <v>322.14</v>
       </c>
       <c r="D82">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E82">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="F82">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="G82">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H82">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-30 18:37:42</v>
+        <v>2023-10-02 06:47:53</v>
       </c>
       <c r="B83">
-        <v>234.5</v>
+        <v>237.5</v>
       </c>
       <c r="C83">
-        <v>340.28</v>
+        <v>341.57</v>
       </c>
       <c r="D83">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E83">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="F83">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="G83">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I83">
         <v>4</v>
@@ -2635,28 +2635,28 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-30 23:47:41</v>
+        <v>2023-10-02 11:57:53</v>
       </c>
       <c r="B84">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C84">
-        <v>340.28</v>
+        <v>341.57</v>
       </c>
       <c r="D84">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E84">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="F84">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="G84">
         <v>35</v>
       </c>
       <c r="H84">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I84">
         <v>4</v>
@@ -2664,22 +2664,22 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-01 04:58:55</v>
+        <v>2023-10-02 17:04:38</v>
       </c>
       <c r="B85">
         <v>230</v>
       </c>
       <c r="C85">
-        <v>322.14</v>
+        <v>341.57</v>
       </c>
       <c r="D85">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E85">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="F85">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="G85">
         <v>35</v>
@@ -2693,25 +2693,25 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-01 10:07:47</v>
+        <v>2023-10-02 22:13:21</v>
       </c>
       <c r="B86">
         <v>230</v>
       </c>
       <c r="C86">
-        <v>322.14</v>
+        <v>341.57</v>
       </c>
       <c r="D86">
         <v>123</v>
       </c>
       <c r="E86">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="F86">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="G86">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>210</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-01 15:18:22</v>
+        <v>2023-10-03 03:22:18</v>
       </c>
       <c r="B87">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C87">
-        <v>322.14</v>
+        <v>343.91</v>
       </c>
       <c r="D87">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>0.35</v>
@@ -2740,27 +2740,27 @@
         <v>0.28</v>
       </c>
       <c r="G87">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>210</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-01 20:27:54</v>
+        <v>2023-10-03 08:31:34</v>
       </c>
       <c r="B88">
-        <v>237.5</v>
+        <v>230</v>
       </c>
       <c r="C88">
-        <v>322.14</v>
+        <v>343.91</v>
       </c>
       <c r="D88">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E88">
         <v>0.35</v>
@@ -2769,7 +2769,7 @@
         <v>0.28</v>
       </c>
       <c r="G88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>210</v>
@@ -2780,25 +2780,25 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-02 01:37:54</v>
+        <v>2023-10-03 13:42:23</v>
       </c>
       <c r="B89">
-        <v>237.5</v>
+        <v>230</v>
       </c>
       <c r="C89">
-        <v>322.14</v>
+        <v>343.91</v>
       </c>
       <c r="D89">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E89">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="F89">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="G89">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>210</v>
@@ -2809,115 +2809,115 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-02 06:47:53</v>
+        <v>2023-10-03 18:52:42</v>
       </c>
       <c r="B90">
-        <v>237.5</v>
+        <v>230</v>
       </c>
       <c r="C90">
-        <v>341.57</v>
+        <v>343.91</v>
       </c>
       <c r="D90">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E90">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="F90">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="G90">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-02 11:57:53</v>
+        <v>2023-10-04 00:03:18</v>
       </c>
       <c r="B91">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C91">
-        <v>341.57</v>
+        <v>343.91</v>
       </c>
       <c r="D91">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E91">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="F91">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="G91">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-02 17:04:38</v>
+        <v>2023-10-04 05:13:23</v>
       </c>
       <c r="B92">
         <v>230</v>
       </c>
       <c r="C92">
-        <v>341.57</v>
+        <v>337.94</v>
       </c>
       <c r="D92">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E92">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="F92">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="G92">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-02 22:13:21</v>
+        <v>2023-10-04 10:24:29</v>
       </c>
       <c r="B93">
         <v>230</v>
       </c>
       <c r="C93">
-        <v>341.57</v>
+        <v>337.94</v>
       </c>
       <c r="D93">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E93">
-        <v>0.12</v>
+        <v>0.34</v>
       </c>
       <c r="F93">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="G93">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -2925,115 +2925,115 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-03 03:22:18</v>
+        <v>2023-10-04 15:32:19</v>
       </c>
       <c r="B94">
         <v>230</v>
       </c>
       <c r="C94">
-        <v>343.91</v>
+        <v>337.94</v>
       </c>
       <c r="D94">
         <v>121</v>
       </c>
       <c r="E94">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F94">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G94">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-03 08:31:34</v>
+        <v>2023-10-04 20:42:54</v>
       </c>
       <c r="B95">
         <v>230</v>
       </c>
       <c r="C95">
-        <v>343.91</v>
+        <v>337.94</v>
       </c>
       <c r="D95">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E95">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F95">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G95">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-03 13:42:23</v>
+        <v>2023-10-05 01:54:38</v>
       </c>
       <c r="B96">
         <v>230</v>
       </c>
       <c r="C96">
-        <v>343.91</v>
+        <v>337.94</v>
       </c>
       <c r="D96">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E96">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F96">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G96">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-03 18:52:42</v>
+        <v>2023-10-05 07:03:56</v>
       </c>
       <c r="B97">
         <v>230</v>
       </c>
       <c r="C97">
-        <v>343.91</v>
+        <v>340.54</v>
       </c>
       <c r="D97">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F97">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G97">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -3041,28 +3041,28 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-04 00:03:18</v>
+        <v>2023-10-05 12:13:02</v>
       </c>
       <c r="B98">
         <v>230</v>
       </c>
       <c r="C98">
-        <v>343.91</v>
+        <v>340.54</v>
       </c>
       <c r="D98">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E98">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="F98">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G98">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -3070,28 +3070,28 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-04 05:13:23</v>
+        <v>2023-10-05 17:22:49</v>
       </c>
       <c r="B99">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C99">
-        <v>337.94</v>
+        <v>340.54</v>
       </c>
       <c r="D99">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E99">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F99">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G99">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I99">
         <v>4</v>
@@ -3099,45 +3099,45 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-04 10:24:29</v>
+        <v>2023-10-05 22:32:49</v>
       </c>
       <c r="B100">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C100">
-        <v>337.94</v>
+        <v>340.54</v>
       </c>
       <c r="D100">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E100">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F100">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G100">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-04 15:32:19</v>
+        <v>2023-10-06 02:09:46</v>
       </c>
       <c r="B101">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C101">
-        <v>337.94</v>
+        <v>333.97</v>
       </c>
       <c r="D101">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E101">
         <v>0.32</v>
@@ -3149,24 +3149,24 @@
         <v>34</v>
       </c>
       <c r="H101">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-04 20:42:54</v>
+        <v>2023-10-06 05:49:14</v>
       </c>
       <c r="B102">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C102">
-        <v>337.94</v>
+        <v>333.97</v>
       </c>
       <c r="D102">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E102">
         <v>0.32</v>
@@ -3175,27 +3175,27 @@
         <v>0.25</v>
       </c>
       <c r="G102">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-05 01:54:38</v>
+        <v>2023-10-06 09:24:33</v>
       </c>
       <c r="B103">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C103">
-        <v>337.94</v>
+        <v>333.97</v>
       </c>
       <c r="D103">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E103">
         <v>0.32</v>
@@ -3204,30 +3204,30 @@
         <v>0.25</v>
       </c>
       <c r="G103">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-05 07:03:56</v>
+        <v>2023-10-06 13:02:15</v>
       </c>
       <c r="B104">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C104">
-        <v>340.54</v>
+        <v>333.97</v>
       </c>
       <c r="D104">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F104">
         <v>0.25</v>
@@ -3236,27 +3236,27 @@
         <v>35</v>
       </c>
       <c r="H104">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-05 12:13:02</v>
+        <v>2023-10-06 16:40:18</v>
       </c>
       <c r="B105">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C105">
-        <v>340.54</v>
+        <v>333.97</v>
       </c>
       <c r="D105">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F105">
         <v>0.25</v>
@@ -3273,19 +3273,19 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-05 17:22:49</v>
+        <v>2023-10-06 20:18:11</v>
       </c>
       <c r="B106">
         <v>238</v>
       </c>
       <c r="C106">
-        <v>340.54</v>
+        <v>333.97</v>
       </c>
       <c r="D106">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E106">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F106">
         <v>0.25</v>
@@ -3302,112 +3302,112 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-05 22:32:49</v>
+        <v>2023-10-06 23:59:22</v>
       </c>
       <c r="B107">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C107">
-        <v>340.54</v>
+        <v>333.97</v>
       </c>
       <c r="D107">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E107">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F107">
         <v>0.25</v>
       </c>
       <c r="G107">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>215</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-06 02:09:46</v>
+        <v>2023-10-07 03:39:12</v>
       </c>
       <c r="B108">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C108">
-        <v>333.97</v>
+        <v>341.25</v>
       </c>
       <c r="D108">
         <v>126</v>
       </c>
       <c r="E108">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F108">
         <v>0.25</v>
       </c>
       <c r="G108">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>215</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-06 05:49:14</v>
+        <v>2023-10-07 07:20:14</v>
       </c>
       <c r="B109">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C109">
-        <v>333.97</v>
+        <v>341.25</v>
       </c>
       <c r="D109">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E109">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F109">
         <v>0.25</v>
       </c>
       <c r="G109">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>215</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-06 09:24:33</v>
+        <v>2023-10-07 10:59:41</v>
       </c>
       <c r="B110">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C110">
-        <v>333.97</v>
+        <v>341.25</v>
       </c>
       <c r="D110">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E110">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F110">
         <v>0.25</v>
       </c>
       <c r="G110">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>215</v>
@@ -3418,16 +3418,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-06 13:02:15</v>
+        <v>2023-10-07 14:39:44</v>
       </c>
       <c r="B111">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C111">
-        <v>333.97</v>
+        <v>341.25</v>
       </c>
       <c r="D111">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E111">
         <v>0.3</v>
@@ -3447,22 +3447,22 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-06 16:40:18</v>
+        <v>2023-10-07 18:18:03</v>
       </c>
       <c r="B112">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C112">
-        <v>333.97</v>
+        <v>341.25</v>
       </c>
       <c r="D112">
         <v>125</v>
       </c>
       <c r="E112">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F112">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="G112">
         <v>35</v>
@@ -3471,59 +3471,59 @@
         <v>215</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-06 20:18:11</v>
+        <v>2023-10-07 21:55:41</v>
       </c>
       <c r="B113">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C113">
-        <v>333.97</v>
+        <v>341.25</v>
       </c>
       <c r="D113">
         <v>126</v>
       </c>
       <c r="E113">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="G113">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>215</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-06 23:59:22</v>
+        <v>2023-10-08 01:33:57</v>
       </c>
       <c r="B114">
         <v>240</v>
       </c>
       <c r="C114">
-        <v>333.97</v>
+        <v>341.25</v>
       </c>
       <c r="D114">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E114">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F114">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G114">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>215</v>
@@ -3534,28 +3534,28 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-07 03:39:12</v>
+        <v>2023-10-08 05:12:17</v>
       </c>
       <c r="B115">
         <v>240</v>
       </c>
       <c r="C115">
-        <v>341.25</v>
+        <v>336.38</v>
       </c>
       <c r="D115">
         <v>126</v>
       </c>
       <c r="E115">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F115">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G115">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I115">
         <v>5</v>
@@ -3563,161 +3563,161 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-07 07:20:14</v>
+        <v>2023-10-08 08:50:45</v>
       </c>
       <c r="B116">
         <v>240</v>
       </c>
       <c r="C116">
-        <v>341.25</v>
+        <v>336.38</v>
       </c>
       <c r="D116">
         <v>126</v>
       </c>
       <c r="E116">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F116">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G116">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-07 10:59:41</v>
+        <v>2023-10-08 12:31:20</v>
       </c>
       <c r="B117">
         <v>240</v>
       </c>
       <c r="C117">
-        <v>341.25</v>
+        <v>336.38</v>
       </c>
       <c r="D117">
         <v>126</v>
       </c>
       <c r="E117">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F117">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G117">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-07 14:39:44</v>
+        <v>2023-10-08 16:10:30</v>
       </c>
       <c r="B118">
         <v>240</v>
       </c>
       <c r="C118">
-        <v>341.25</v>
+        <v>336.38</v>
       </c>
       <c r="D118">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E118">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="F118">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G118">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-07 18:18:03</v>
+        <v>2023-10-08 19:49:16</v>
       </c>
       <c r="B119">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C119">
-        <v>341.25</v>
+        <v>336.38</v>
       </c>
       <c r="D119">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E119">
         <v>0.28</v>
       </c>
       <c r="F119">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G119">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H119">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-07 21:55:41</v>
+        <v>2023-10-08 23:26:30</v>
       </c>
       <c r="B120">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C120">
-        <v>341.25</v>
+        <v>336.38</v>
       </c>
       <c r="D120">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E120">
         <v>0.28</v>
       </c>
       <c r="F120">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G120">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H120">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-08 01:33:57</v>
+        <v>2023-10-09 04:33:26</v>
       </c>
       <c r="B121">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C121">
-        <v>341.25</v>
+        <v>325</v>
       </c>
       <c r="D121">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E121">
         <v>0.28</v>
@@ -3729,24 +3729,24 @@
         <v>36</v>
       </c>
       <c r="H121">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-08 05:12:17</v>
+        <v>2023-10-09 09:43:24</v>
       </c>
       <c r="B122">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C122">
-        <v>336.38</v>
+        <v>325</v>
       </c>
       <c r="D122">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E122">
         <v>0.28</v>
@@ -3755,24 +3755,24 @@
         <v>0.22</v>
       </c>
       <c r="G122">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I122">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-08 08:50:45</v>
+        <v>2023-10-09 14:53:22</v>
       </c>
       <c r="B123">
         <v>240</v>
       </c>
       <c r="C123">
-        <v>336.38</v>
+        <v>325</v>
       </c>
       <c r="D123">
         <v>126</v>
@@ -3784,24 +3784,24 @@
         <v>0.22</v>
       </c>
       <c r="G123">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-08 12:31:20</v>
+        <v>2023-10-09 20:03:22</v>
       </c>
       <c r="B124">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C124">
-        <v>336.38</v>
+        <v>325</v>
       </c>
       <c r="D124">
         <v>126</v>
@@ -3816,24 +3816,24 @@
         <v>36</v>
       </c>
       <c r="H124">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I124">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-08 16:10:30</v>
+        <v>2023-10-10 01:13:22</v>
       </c>
       <c r="B125">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C125">
-        <v>336.38</v>
+        <v>325</v>
       </c>
       <c r="D125">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E125">
         <v>0.28</v>
@@ -3842,27 +3842,27 @@
         <v>0.22</v>
       </c>
       <c r="G125">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I125">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-08 19:49:16</v>
+        <v>2023-10-10 06:23:22</v>
       </c>
       <c r="B126">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C126">
-        <v>336.38</v>
+        <v>334.62</v>
       </c>
       <c r="D126">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E126">
         <v>0.28</v>
@@ -3871,27 +3871,27 @@
         <v>0.22</v>
       </c>
       <c r="G126">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I126">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-08 23:26:30</v>
+        <v>2023-10-10 11:33:22</v>
       </c>
       <c r="B127">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C127">
-        <v>336.38</v>
+        <v>334.62</v>
       </c>
       <c r="D127">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E127">
         <v>0.28</v>
@@ -3900,27 +3900,27 @@
         <v>0.22</v>
       </c>
       <c r="G127">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I127">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-09 04:33:26</v>
+        <v>2023-10-10 16:43:22</v>
       </c>
       <c r="B128">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C128">
-        <v>325</v>
+        <v>334.62</v>
       </c>
       <c r="D128">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E128">
         <v>0.28</v>
@@ -3929,27 +3929,27 @@
         <v>0.22</v>
       </c>
       <c r="G128">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-09 09:43:24</v>
+        <v>2023-10-10 21:53:22</v>
       </c>
       <c r="B129">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C129">
-        <v>325</v>
+        <v>334.62</v>
       </c>
       <c r="D129">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E129">
         <v>0.28</v>
@@ -3958,27 +3958,27 @@
         <v>0.22</v>
       </c>
       <c r="G129">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I129">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-09 14:53:22</v>
+        <v>2023-10-11 03:03:22</v>
       </c>
       <c r="B130">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C130">
-        <v>325</v>
+        <v>336.44</v>
       </c>
       <c r="D130">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E130">
         <v>0.28</v>
@@ -3990,7 +3990,7 @@
         <v>35</v>
       </c>
       <c r="H130">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I130">
         <v>8</v>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-09 20:03:22</v>
+        <v>2023-10-11 08:13:21</v>
       </c>
       <c r="B131">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C131">
-        <v>325</v>
+        <v>336.44</v>
       </c>
       <c r="D131">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E131">
         <v>0.28</v>
@@ -4016,27 +4016,27 @@
         <v>0.22</v>
       </c>
       <c r="G131">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I131">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-10 01:13:22</v>
+        <v>2023-10-11 13:14:53</v>
       </c>
       <c r="B132">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C132">
-        <v>325</v>
+        <v>336.44</v>
       </c>
       <c r="D132">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E132">
         <v>0.28</v>
@@ -4045,27 +4045,27 @@
         <v>0.22</v>
       </c>
       <c r="G132">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>221</v>
       </c>
       <c r="I132">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-10 06:23:22</v>
+        <v>2023-10-11 18:24:53</v>
       </c>
       <c r="B133">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C133">
-        <v>334.62</v>
+        <v>336.44</v>
       </c>
       <c r="D133">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E133">
         <v>0.28</v>
@@ -4080,21 +4080,21 @@
         <v>221</v>
       </c>
       <c r="I133">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-10 11:33:22</v>
+        <v>2023-10-11 23:34:55</v>
       </c>
       <c r="B134">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C134">
-        <v>334.62</v>
+        <v>336.44</v>
       </c>
       <c r="D134">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E134">
         <v>0.28</v>
@@ -4103,27 +4103,27 @@
         <v>0.22</v>
       </c>
       <c r="G134">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I134">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-10 16:43:22</v>
+        <v>2023-10-12 04:45:13</v>
       </c>
       <c r="B135">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C135">
-        <v>334.62</v>
+        <v>330.13</v>
       </c>
       <c r="D135">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E135">
         <v>0.28</v>
@@ -4132,27 +4132,27 @@
         <v>0.22</v>
       </c>
       <c r="G135">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I135">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-10 21:53:22</v>
+        <v>2023-10-12 09:55:20</v>
       </c>
       <c r="B136">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C136">
-        <v>334.62</v>
+        <v>330.13</v>
       </c>
       <c r="D136">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E136">
         <v>0.28</v>
@@ -4161,24 +4161,24 @@
         <v>0.22</v>
       </c>
       <c r="G136">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I136">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-11 03:03:22</v>
+        <v>2023-10-12 15:05:01</v>
       </c>
       <c r="B137">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C137">
-        <v>336.44</v>
+        <v>330.13</v>
       </c>
       <c r="D137">
         <v>121</v>
@@ -4187,13 +4187,13 @@
         <v>0.28</v>
       </c>
       <c r="F137">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G137">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I137">
         <v>8</v>
@@ -4201,57 +4201,57 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-11 08:13:21</v>
+        <v>2023-10-12 20:14:59</v>
       </c>
       <c r="B138">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C138">
-        <v>336.44</v>
+        <v>330.13</v>
       </c>
       <c r="D138">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E138">
         <v>0.28</v>
       </c>
       <c r="F138">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G138">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I138">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-11 13:14:53</v>
+        <v>2023-10-13 01:24:59</v>
       </c>
       <c r="B139">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C139">
-        <v>336.44</v>
+        <v>330.13</v>
       </c>
       <c r="D139">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E139">
         <v>0.28</v>
       </c>
       <c r="F139">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G139">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I139">
         <v>8</v>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-11 18:24:53</v>
+        <v>2023-10-13 06:36:39</v>
       </c>
       <c r="B140">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C140">
-        <v>336.44</v>
+        <v>356.91</v>
       </c>
       <c r="D140">
         <v>118</v>
@@ -4274,155 +4274,155 @@
         <v>0.28</v>
       </c>
       <c r="F140">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G140">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I140">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-11 23:34:55</v>
+        <v>2023-10-13 11:46:49</v>
       </c>
       <c r="B141">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C141">
-        <v>336.44</v>
+        <v>356.91</v>
       </c>
       <c r="D141">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E141">
         <v>0.28</v>
       </c>
       <c r="F141">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G141">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I141">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-12 04:45:13</v>
+        <v>2023-10-13 16:00:37</v>
       </c>
       <c r="B142">
         <v>259</v>
       </c>
       <c r="C142">
-        <v>330.13</v>
+        <v>356.91</v>
       </c>
       <c r="D142">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E142">
         <v>0.28</v>
       </c>
       <c r="F142">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G142">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H142">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I142">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-12 09:55:20</v>
+        <v>2023-10-13 19:41:07</v>
       </c>
       <c r="B143">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C143">
-        <v>330.13</v>
+        <v>356.91</v>
       </c>
       <c r="D143">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E143">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F143">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G143">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I143">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-12 15:05:01</v>
+        <v>2023-10-13 23:20:07</v>
       </c>
       <c r="B144">
         <v>259</v>
       </c>
       <c r="C144">
-        <v>330.13</v>
+        <v>356.91</v>
       </c>
       <c r="D144">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E144">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F144">
         <v>0.21</v>
       </c>
       <c r="G144">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H144">
         <v>224</v>
       </c>
       <c r="I144">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-12 20:14:59</v>
+        <v>2023-10-14 02:57:07</v>
       </c>
       <c r="B145">
         <v>259</v>
       </c>
       <c r="C145">
-        <v>330.13</v>
+        <v>350.29</v>
       </c>
       <c r="D145">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E145">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F145">
         <v>0.21</v>
       </c>
       <c r="G145">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>224</v>
@@ -4433,260 +4433,260 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-13 01:24:59</v>
+        <v>2023-10-14 06:34:20</v>
       </c>
       <c r="B146">
         <v>259</v>
       </c>
       <c r="C146">
-        <v>330.13</v>
+        <v>350.29</v>
       </c>
       <c r="D146">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E146">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F146">
         <v>0.21</v>
       </c>
       <c r="G146">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>224</v>
       </c>
       <c r="I146">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-13 06:36:39</v>
+        <v>2023-10-14 10:14:02</v>
       </c>
       <c r="B147">
         <v>259</v>
       </c>
       <c r="C147">
-        <v>356.91</v>
+        <v>350.29</v>
       </c>
       <c r="D147">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E147">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F147">
         <v>0.21</v>
       </c>
       <c r="G147">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H147">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I147">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-13 11:46:49</v>
+        <v>2023-10-14 13:50:06</v>
       </c>
       <c r="B148">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C148">
-        <v>356.91</v>
+        <v>350.29</v>
       </c>
       <c r="D148">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E148">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="F148">
         <v>0.21</v>
       </c>
       <c r="G148">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H148">
         <v>225</v>
       </c>
       <c r="I148">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-13 16:00:37</v>
+        <v>2023-10-14 17:26:47</v>
       </c>
       <c r="B149">
-        <v>259</v>
+        <v>258.5</v>
       </c>
       <c r="C149">
-        <v>356.91</v>
+        <v>350.29</v>
       </c>
       <c r="D149">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E149">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="F149">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G149">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H149">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I149">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-13 19:41:07</v>
+        <v>2023-10-14 21:04:19</v>
       </c>
       <c r="B150">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C150">
-        <v>356.91</v>
+        <v>350.29</v>
       </c>
       <c r="D150">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E150">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F150">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G150">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H150">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I150">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-13 23:20:07</v>
+        <v>2023-10-15 00:41:24</v>
       </c>
       <c r="B151">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C151">
-        <v>356.91</v>
+        <v>350.29</v>
       </c>
       <c r="D151">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E151">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F151">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G151">
         <v>41</v>
       </c>
       <c r="H151">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I151">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-14 02:57:07</v>
+        <v>2023-10-15 04:23:19</v>
       </c>
       <c r="B152">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C152">
-        <v>350.29</v>
+        <v>320.06</v>
       </c>
       <c r="D152">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E152">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F152">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G152">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I152">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-14 06:34:20</v>
+        <v>2023-10-15 08:01:47</v>
       </c>
       <c r="B153">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C153">
-        <v>350.29</v>
+        <v>320.06</v>
       </c>
       <c r="D153">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E153">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F153">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G153">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H153">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I153">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-14 10:14:02</v>
+        <v>2023-10-15 11:42:25</v>
       </c>
       <c r="B154">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C154">
-        <v>350.29</v>
+        <v>320.06</v>
       </c>
       <c r="D154">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E154">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F154">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G154">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H154">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I154">
         <v>10</v>
@@ -4694,289 +4694,289 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-14 13:50:06</v>
+        <v>2023-10-15 15:22:20</v>
       </c>
       <c r="B155">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C155">
-        <v>350.29</v>
+        <v>320.06</v>
       </c>
       <c r="D155">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E155">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F155">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G155">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H155">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I155">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-14 17:26:47</v>
+        <v>2023-10-15 19:04:23</v>
       </c>
       <c r="B156">
-        <v>258.5</v>
+        <v>255</v>
       </c>
       <c r="C156">
-        <v>350.29</v>
+        <v>320.06</v>
       </c>
       <c r="D156">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E156">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F156">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G156">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H156">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I156">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-14 21:04:19</v>
+        <v>2023-10-15 22:42:50</v>
       </c>
       <c r="B157">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C157">
-        <v>350.29</v>
+        <v>320.06</v>
       </c>
       <c r="D157">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E157">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F157">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G157">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I157">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-15 00:41:24</v>
+        <v>2023-10-16 02:20:53</v>
       </c>
       <c r="B158">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C158">
-        <v>350.29</v>
+        <v>338</v>
       </c>
       <c r="D158">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E158">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F158">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G158">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H158">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I158">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-15 04:23:19</v>
+        <v>2023-10-16 05:54:02</v>
       </c>
       <c r="B159">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C159">
-        <v>320.06</v>
+        <v>338</v>
       </c>
       <c r="D159">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E159">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F159">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G159">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H159">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I159">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-15 08:01:47</v>
+        <v>2023-10-16 09:33:10</v>
       </c>
       <c r="B160">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C160">
-        <v>320.06</v>
+        <v>338</v>
       </c>
       <c r="D160">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E160">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="F160">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G160">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H160">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I160">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-15 11:42:25</v>
+        <v>2023-10-16 13:12:17</v>
       </c>
       <c r="B161">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C161">
-        <v>320.06</v>
+        <v>338</v>
       </c>
       <c r="D161">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E161">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F161">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G161">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H161">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I161">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-15 15:22:20</v>
+        <v>2023-10-16 16:54:02</v>
       </c>
       <c r="B162">
-        <v>255</v>
+        <v>249.5</v>
       </c>
       <c r="C162">
-        <v>320.06</v>
+        <v>338</v>
       </c>
       <c r="D162">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E162">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="F162">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G162">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H162">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I162">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-15 19:04:23</v>
+        <v>2023-10-16 20:36:09</v>
       </c>
       <c r="B163">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C163">
-        <v>320.06</v>
+        <v>338</v>
       </c>
       <c r="D163">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E163">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F163">
         <v>0.19</v>
       </c>
       <c r="G163">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H163">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I163">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-15 22:42:50</v>
+        <v>2023-10-17 00:15:06</v>
       </c>
       <c r="B164">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C164">
-        <v>320.06</v>
+        <v>338</v>
       </c>
       <c r="D164">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E164">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F164">
         <v>0.19</v>
       </c>
       <c r="G164">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H164">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I164">
         <v>8</v>
@@ -4984,231 +4984,231 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-16 02:20:53</v>
+        <v>2023-10-17 03:51:07</v>
       </c>
       <c r="B165">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C165">
-        <v>338</v>
+        <v>313.04</v>
       </c>
       <c r="D165">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E165">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F165">
         <v>0.19</v>
       </c>
       <c r="G165">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H165">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I165">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-16 05:54:02</v>
+        <v>2023-10-17 07:26:48</v>
       </c>
       <c r="B166">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C166">
-        <v>338</v>
+        <v>313.04</v>
       </c>
       <c r="D166">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E166">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F166">
         <v>0.19</v>
       </c>
       <c r="G166">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H166">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I166">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-16 09:33:10</v>
+        <v>2023-10-17 11:05:09</v>
       </c>
       <c r="B167">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C167">
-        <v>338</v>
+        <v>313.04</v>
       </c>
       <c r="D167">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E167">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F167">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G167">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H167">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I167">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-16 13:12:17</v>
+        <v>2023-10-17 14:43:03</v>
       </c>
       <c r="B168">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C168">
-        <v>338</v>
+        <v>313.04</v>
       </c>
       <c r="D168">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E168">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F168">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G168">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H168">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I168">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-16 16:54:02</v>
+        <v>2023-10-17 18:25:18</v>
       </c>
       <c r="B169">
-        <v>249.5</v>
+        <v>244.5</v>
       </c>
       <c r="C169">
-        <v>338</v>
+        <v>313.04</v>
       </c>
       <c r="D169">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E169">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="F169">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G169">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H169">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I169">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-16 20:36:09</v>
+        <v>2023-10-17 22:03:19</v>
       </c>
       <c r="B170">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="C170">
-        <v>338</v>
+        <v>313.04</v>
       </c>
       <c r="D170">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E170">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F170">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G170">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H170">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I170">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-17 00:15:06</v>
+        <v>2023-10-18 01:44:24</v>
       </c>
       <c r="B171">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="C171">
-        <v>338</v>
+        <v>313.04</v>
       </c>
       <c r="D171">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E171">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F171">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G171">
         <v>45</v>
       </c>
       <c r="H171">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I171">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-17 03:51:07</v>
+        <v>2023-10-18 05:24:55</v>
       </c>
       <c r="B172">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="C172">
-        <v>313.04</v>
+        <v>328.57</v>
       </c>
       <c r="D172">
         <v>133</v>
       </c>
       <c r="E172">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F172">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G172">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H172">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I172">
         <v>8</v>
@@ -5216,31 +5216,118 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-17 07:26:48</v>
+        <v>2023-10-18 09:05:47</v>
       </c>
       <c r="B173">
-        <v>249</v>
+        <v>244.5</v>
       </c>
       <c r="C173">
-        <v>313.04</v>
+        <v>328.57</v>
       </c>
       <c r="D173">
+        <v>132</v>
+      </c>
+      <c r="E173">
+        <v>0.2</v>
+      </c>
+      <c r="F173">
+        <v>0.16</v>
+      </c>
+      <c r="G173">
+        <v>45</v>
+      </c>
+      <c r="H173">
+        <v>222</v>
+      </c>
+      <c r="I173">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>2023-10-18 12:45:35</v>
+      </c>
+      <c r="B174">
+        <v>244.5</v>
+      </c>
+      <c r="C174">
+        <v>328.57</v>
+      </c>
+      <c r="D174">
+        <v>132</v>
+      </c>
+      <c r="E174">
+        <v>0.19</v>
+      </c>
+      <c r="F174">
+        <v>0.15</v>
+      </c>
+      <c r="G174">
+        <v>44</v>
+      </c>
+      <c r="H174">
+        <v>223</v>
+      </c>
+      <c r="I174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>2023-10-18 16:23:36</v>
+      </c>
+      <c r="B175">
+        <v>238.5</v>
+      </c>
+      <c r="C175">
+        <v>328.57</v>
+      </c>
+      <c r="D175">
         <v>134</v>
       </c>
-      <c r="E173">
-        <v>0.23</v>
-      </c>
-      <c r="F173">
+      <c r="E175">
         <v>0.19</v>
       </c>
-      <c r="G173">
-        <v>46</v>
-      </c>
-      <c r="H173">
-        <v>228</v>
-      </c>
-      <c r="I173">
-        <v>8</v>
+      <c r="F175">
+        <v>0.15</v>
+      </c>
+      <c r="G175">
+        <v>44</v>
+      </c>
+      <c r="H175">
+        <v>222</v>
+      </c>
+      <c r="I175">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>2023-10-18 20:03:55</v>
+      </c>
+      <c r="B176">
+        <v>242</v>
+      </c>
+      <c r="C176">
+        <v>328.57</v>
+      </c>
+      <c r="D176">
+        <v>132</v>
+      </c>
+      <c r="E176">
+        <v>0.19</v>
+      </c>
+      <c r="F176">
+        <v>0.15</v>
+      </c>
+      <c r="G176">
+        <v>44</v>
+      </c>
+      <c r="H176">
+        <v>222</v>
+      </c>
+      <c r="I176">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5252,7 +5339,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I173"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I176"/>
   </ignoredErrors>
 </worksheet>
 </file>